--- a/GATEWAY/A1#111#ADVICEPHARMAGROUPSRLXX/AdvicePharma/Liberness-Dashboard/0.1.44/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#ADVICEPHARMAGROUPSRLXX/AdvicePharma/Liberness-Dashboard/0.1.44/accreditamento-checklist_V8.2.6.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.alberio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://advicepharmagroup.sharepoint.com/teams/ADV-IT/Documenti condivisi/IT-Team/Area Sviluppo/Theras/documentazione-fse/validazione_accreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C9F73-643D-4009-B885-54186FA4ACB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1F9C9F73-643D-4009-B885-54186FA4ACB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97DB2E2F-86CD-4DDC-A347-6865FC844D00}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2850" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,15 +653,6 @@
     <t>subject_application_version: 0.1.44</t>
   </si>
   <si>
-    <t>2025-10-21T08:27:44Z</t>
-  </si>
-  <si>
-    <t>2025-10-21T08:27:46Z</t>
-  </si>
-  <si>
-    <t>2025-10-21T08:27:49Z</t>
-  </si>
-  <si>
     <t>2025-10-21T08:28:27Z</t>
   </si>
   <si>
@@ -698,21 +689,9 @@
     <t>2025-10-21T08:28:22Z</t>
   </si>
   <si>
-    <t>2025-10-21T08:27:51Z</t>
-  </si>
-  <si>
     <t>2025-10-21T08:28:25Z</t>
   </si>
   <si>
-    <t>dd0d6391986c34eca2a1314fe9232f94</t>
-  </si>
-  <si>
-    <t>21dc34bdd284d6142b35e678dabee660</t>
-  </si>
-  <si>
-    <t>acfc12a093d9075c877a460421814493</t>
-  </si>
-  <si>
     <t>c5b4edddbd4cd25cc2a2e9fe41e89853</t>
   </si>
   <si>
@@ -749,21 +728,9 @@
     <t>b7e8cc04a8ca6ccfbdbe8a3bebbc752c</t>
   </si>
   <si>
-    <t>239bed63c06e3d5f0cb62e7458495e73</t>
-  </si>
-  <si>
     <t>14cca8173360a3914242cb21ad4f3585</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.94c8f65a8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.2d26b207cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.207cfb705f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -797,9 +764,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.39f50165ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.4dd5fd9b2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.19a69d3ace^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -846,6 +810,42 @@
   </si>
   <si>
     <t>Fino alla analisi e risoluzione in backoffice del problema riscontrato, il referto della visita non viene inviato per la pubblicazione in FSE. Successivamente sarà possibile procedere con la firma e sottomissione del documento corretto</t>
+  </si>
+  <si>
+    <t>9994f911869b4dbba1cfdf7eeddfc0c4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.106d43881c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-24T16:02:41Z</t>
+  </si>
+  <si>
+    <t>142c6859bb4f095c7348ad8748fbc769</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.9454d8c2a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-24T16:02:44Z</t>
+  </si>
+  <si>
+    <t>4f280b2138c1aaa8112a0f69f1bfa123</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.c3ece8d90e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-24T16:02:46Z</t>
+  </si>
+  <si>
+    <t>f166560b15d2906256c81501bb1ec08e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.0b82e77155333dcb9dc92526fe16ed262fd343748fb517836cb375c2315c04b1.03ac300d99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-24T16:02:49Z</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2877,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3179,16 +3179,16 @@
         <v>102</v>
       </c>
       <c r="F10" s="34">
-        <v>45951</v>
+        <v>45954</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J10" s="35" t="s">
         <v>47</v>
@@ -3226,16 +3226,16 @@
         <v>101</v>
       </c>
       <c r="F11" s="34">
-        <v>45951</v>
+        <v>45954</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>47</v>
@@ -3272,16 +3272,16 @@
         <v>100</v>
       </c>
       <c r="F12" s="34">
-        <v>45951</v>
+        <v>45954</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="J12" s="35" t="s">
         <v>47</v>
@@ -3322,13 +3322,13 @@
         <v>45951</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>47</v>
@@ -3342,7 +3342,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P13" s="35" t="s">
         <v>47</v>
@@ -3354,7 +3354,7 @@
         <v>56</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T13" s="35"/>
       <c r="U13" s="36"/>
@@ -3383,13 +3383,13 @@
         <v>45951</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>47</v>
@@ -3403,7 +3403,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="P14" s="35" t="s">
         <v>47</v>
@@ -3415,7 +3415,7 @@
         <v>56</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T14" s="35"/>
       <c r="U14" s="36"/>
@@ -3458,7 +3458,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="P15" s="35" t="s">
         <v>47</v>
@@ -3470,7 +3470,7 @@
         <v>56</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T15" s="35"/>
       <c r="U15" s="36"/>
@@ -3499,13 +3499,13 @@
         <v>45951</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>47</v>
@@ -3519,7 +3519,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="P16" s="35" t="s">
         <v>47</v>
@@ -3531,7 +3531,7 @@
         <v>56</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T16" s="35"/>
       <c r="U16" s="36"/>
@@ -3560,13 +3560,13 @@
         <v>45951</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>47</v>
@@ -3580,7 +3580,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="P17" s="35" t="s">
         <v>47</v>
@@ -3592,7 +3592,7 @@
         <v>56</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T17" s="35"/>
       <c r="U17" s="36"/>
@@ -3621,13 +3621,13 @@
         <v>45951</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>47</v>
@@ -3641,7 +3641,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P18" s="35" t="s">
         <v>47</v>
@@ -3653,7 +3653,7 @@
         <v>56</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T18" s="35"/>
       <c r="U18" s="36"/>
@@ -3682,13 +3682,13 @@
         <v>45951</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>47</v>
@@ -3702,7 +3702,7 @@
         <v>47</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P19" s="35" t="s">
         <v>47</v>
@@ -3714,7 +3714,7 @@
         <v>56</v>
       </c>
       <c r="S19" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
@@ -3743,13 +3743,13 @@
         <v>45951</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>47</v>
@@ -3763,7 +3763,7 @@
         <v>47</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="P20" s="35" t="s">
         <v>47</v>
@@ -3775,7 +3775,7 @@
         <v>56</v>
       </c>
       <c r="S20" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T20" s="35"/>
       <c r="U20" s="36"/>
@@ -3804,13 +3804,13 @@
         <v>45951</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>47</v>
@@ -3824,7 +3824,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="P21" s="35" t="s">
         <v>47</v>
@@ -3836,7 +3836,7 @@
         <v>56</v>
       </c>
       <c r="S21" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T21" s="35"/>
       <c r="U21" s="36"/>
@@ -3865,13 +3865,13 @@
         <v>45951</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>47</v>
@@ -3885,7 +3885,7 @@
         <v>47</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="P22" s="35" t="s">
         <v>47</v>
@@ -3897,7 +3897,7 @@
         <v>56</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T22" s="35"/>
       <c r="U22" s="36"/>
@@ -3926,13 +3926,13 @@
         <v>45951</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>47</v>
@@ -3946,7 +3946,7 @@
         <v>47</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="P23" s="35" t="s">
         <v>47</v>
@@ -3958,7 +3958,7 @@
         <v>56</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T23" s="35"/>
       <c r="U23" s="36"/>
@@ -3987,13 +3987,13 @@
         <v>45951</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J24" s="35" t="s">
         <v>47</v>
@@ -4007,7 +4007,7 @@
         <v>47</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P24" s="35" t="s">
         <v>47</v>
@@ -4019,7 +4019,7 @@
         <v>56</v>
       </c>
       <c r="S24" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T24" s="35"/>
       <c r="U24" s="36"/>
@@ -4048,13 +4048,13 @@
         <v>45951</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J25" s="35" t="s">
         <v>47</v>
@@ -4068,7 +4068,7 @@
         <v>47</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P25" s="35" t="s">
         <v>47</v>
@@ -4080,7 +4080,7 @@
         <v>56</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T25" s="35"/>
       <c r="U25" s="36"/>
@@ -4106,16 +4106,16 @@
         <v>109</v>
       </c>
       <c r="F26" s="34">
-        <v>45951</v>
+        <v>45954</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>47</v>
@@ -4156,13 +4156,13 @@
         <v>45951</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>47</v>
@@ -4176,7 +4176,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P27" s="35" t="s">
         <v>47</v>
@@ -4188,7 +4188,7 @@
         <v>56</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T27" s="35"/>
       <c r="U27" s="33"/>
@@ -8226,8 +8226,8 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -10498,31 +10498,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
-    <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <xsd:import namespace="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F11BF70FFD3D542AB455E9BEE7915DE" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="10de971dc65dddaf364a2fcaed525cb3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c919572f-93c7-458d-aa7c-0a3f0829a976" xmlns:ns3="710858b5-fbfa-470d-9374-667c7e4af0bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ad9c7d18c337c47e88207e16431eeb9" ns2:_="" ns3:_="">
+    <xsd:import namespace="c919572f-93c7-458d-aa7c-0a3f0829a976"/>
+    <xsd:import namespace="710858b5-fbfa-470d-9374-667c7e4af0bb"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -10531,21 +10510,13 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:UserStoryALM" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10553,7 +10524,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e76d14e-d0ce-457c-8343-9b55836d9ead" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c919572f-93c7-458d-aa7c-0a3f0829a976" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -10566,16 +10537,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
@@ -10588,58 +10557,25 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8ee7582b-84e1-4c71-b22d-13488113859c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UserStoryALM" ma:index="25" nillable="true" ma:displayName="UserStory ALM" ma:format="Dropdown" ma:internalName="UserStoryALM">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="137048 - Stesura checklist RAP"/>
-          <xsd:enumeration value="137049 - Sviluppo testcase RAP"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a56712a3-8dfd-4688-917a-22f0cf513b89" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="710858b5-fbfa-470d-9374-667c7e4af0bb" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c488629b-a647-4465-8bb2-a216a95770f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a56712a3-8dfd-4688-917a-22f0cf513b89">
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bc4bede2-47fd-46c1-ae54-c8cdbf17e1ca}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="710858b5-fbfa-470d-9374-667c7e4af0bb">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -10649,32 +10585,6 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -10686,8 +10596,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -10776,10 +10686,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="710858b5-fbfa-470d-9374-667c7e4af0bb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c919572f-93c7-458d-aa7c-0a3f0829a976">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2BDFBA-E582-44EE-A0D7-4A022D70FCA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c919572f-93c7-458d-aa7c-0a3f0829a976"/>
+    <ds:schemaRef ds:uri="710858b5-fbfa-470d-9374-667c7e4af0bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10797,25 +10738,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="710858b5-fbfa-470d-9374-667c7e4af0bb"/>
+    <ds:schemaRef ds:uri="c919572f-93c7-458d-aa7c-0a3f0829a976"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
